--- a/Team-Data/2020-21/1-16-2020-21.xlsx
+++ b/Team-Data/2020-21/1-16-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>111.8</v>
       </c>
       <c r="BN3" t="n">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="BO3" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="BP3" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="BQ3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BR3" t="n">
         <v>4.4</v>
@@ -3073,13 +3073,13 @@
         <v>17</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="BW3" t="n">
         <v>0.728</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.514</v>
+        <v>0.513</v>
       </c>
       <c r="BY3" t="n">
         <v>0.152</v>
@@ -3094,13 +3094,13 @@
         <v>102.4</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.41</v>
+        <v>100.5</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.67</v>
+        <v>83.75</v>
       </c>
       <c r="CE3" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="CF3" t="n">
         <v>0.523</v>
@@ -3121,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="CL3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CM3" t="n">
         <v>15</v>
@@ -3139,13 +3139,13 @@
         <v>21</v>
       </c>
       <c r="CR3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS3" t="n">
         <v>22</v>
       </c>
       <c r="CT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU3" t="n">
         <v>20</v>
@@ -3157,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="CX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CY3" t="n">
         <v>9</v>
@@ -3203,7 +3203,7 @@
         <v>0.152</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="DM3" t="n">
         <v>0.528</v>
@@ -3212,7 +3212,7 @@
         <v>0.263</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="DP3" t="n">
         <v>0.272</v>
@@ -3242,7 +3242,7 @@
         <v>20</v>
       </c>
       <c r="DY3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DZ3" t="n">
         <v>16</v>
@@ -3251,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="EB3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="EC3" t="n">
         <v>22</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="HJ3" t="n">
         <v>34.1</v>
@@ -3648,16 +3648,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="JA3" t="n">
         <v>22.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="JC3" t="n">
         <v>7.5</v>
@@ -3735,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="KB3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="KC3" t="n">
         <v>15</v>
@@ -4973,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="CL5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CM5" t="n">
         <v>10</v>
@@ -8538,7 +8538,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>28</v>
@@ -8695,13 +8695,13 @@
         <v>2</v>
       </c>
       <c r="CR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS9" t="n">
         <v>16</v>
       </c>
       <c r="CT9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU9" t="n">
         <v>18</v>
@@ -8798,7 +8798,7 @@
         <v>18</v>
       </c>
       <c r="DY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DZ9" t="n">
         <v>25</v>
@@ -9119,7 +9119,7 @@
         <v>24</v>
       </c>
       <c r="HX9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="HY9" t="n">
         <v>16</v>
@@ -9386,16 +9386,16 @@
         <v>11.2</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9473,7 +9473,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
@@ -9528,10 +9528,10 @@
         <v>591</v>
       </c>
       <c r="BM10" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="BN10" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="BO10" t="n">
         <v>110.4</v>
@@ -9549,7 +9549,7 @@
         <v>0.629</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="BU10" t="n">
         <v>17.4</v>
@@ -9558,13 +9558,13 @@
         <v>0.284</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.495</v>
@@ -9576,13 +9576,13 @@
         <v>101.2</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.17</v>
+        <v>99.25</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.64</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="CE10" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="CF10" t="n">
         <v>0.463</v>
@@ -9603,7 +9603,7 @@
         <v>13</v>
       </c>
       <c r="CL10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CM10" t="n">
         <v>22</v>
@@ -9624,13 +9624,13 @@
         <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CT10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV10" t="n">
         <v>29</v>
@@ -9682,7 +9682,7 @@
         <v>0.241</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="DL10" t="n">
         <v>0.284</v>
@@ -9694,10 +9694,10 @@
         <v>0.262</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
       <c r="DQ10" t="n">
         <v>13</v>
@@ -9721,7 +9721,7 @@
         <v>17</v>
       </c>
       <c r="DX10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DY10" t="n">
         <v>7</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="EC10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10003,10 +10003,10 @@
         <v>111.3</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>28</v>
       </c>
       <c r="HY10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="HZ10" t="n">
         <v>10</v>
@@ -11455,7 +11455,7 @@
         <v>23</v>
       </c>
       <c r="CL12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CM12" t="n">
         <v>16</v>
@@ -11585,7 +11585,7 @@
         <v>18</v>
       </c>
       <c r="EB12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="EC12" t="n">
         <v>30</v>
@@ -12408,7 +12408,7 @@
         <v>16</v>
       </c>
       <c r="CU13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV13" t="n">
         <v>10</v>
@@ -12499,7 +12499,7 @@
         <v>24</v>
       </c>
       <c r="DX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DY13" t="n">
         <v>21</v>
@@ -13328,7 +13328,7 @@
         <v>18</v>
       </c>
       <c r="CS14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT14" t="n">
         <v>13</v>
@@ -13440,7 +13440,7 @@
         <v>11</v>
       </c>
       <c r="EC14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="ED14" t="n">
         <v>10</v>
@@ -13752,7 +13752,7 @@
         <v>30</v>
       </c>
       <c r="HY14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="HZ14" t="n">
         <v>18</v>
@@ -14269,7 +14269,7 @@
         <v>7</v>
       </c>
       <c r="CX15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CY15" t="n">
         <v>1</v>
@@ -16109,7 +16109,7 @@
         <v>21</v>
       </c>
       <c r="CT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CU17" t="n">
         <v>30</v>
@@ -21771,7 +21771,7 @@
         <v>5</v>
       </c>
       <c r="EB23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="EC23" t="n">
         <v>2</v>
@@ -22255,7 +22255,7 @@
         <v>15</v>
       </c>
       <c r="KB23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="KC23" t="n">
         <v>17</v>
@@ -24440,7 +24440,7 @@
         <v>20</v>
       </c>
       <c r="CS26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT26" t="n">
         <v>22</v>
@@ -24552,7 +24552,7 @@
         <v>20</v>
       </c>
       <c r="EC26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ED26" t="n">
         <v>10</v>
@@ -24864,7 +24864,7 @@
         <v>17</v>
       </c>
       <c r="HY26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="HZ26" t="n">
         <v>11</v>
@@ -26271,7 +26271,7 @@
         <v>6</v>
       </c>
       <c r="CL28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CM28" t="n">
         <v>9</v>
@@ -29049,7 +29049,7 @@
         <v>29</v>
       </c>
       <c r="CL31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CM31" t="n">
         <v>27</v>

--- a/Team-Data/2020-21/1-16-2020-21.xlsx
+++ b/Team-Data/2020-21/1-16-2020-21.xlsx
@@ -733,94 +733,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.417</v>
+        <v>0.455</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J2" t="n">
-        <v>89.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.435</v>
       </c>
       <c r="L2" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="M2" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="N2" t="n">
-        <v>0.337</v>
+        <v>0.347</v>
       </c>
       <c r="O2" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R2" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>37.3</v>
+        <v>36.9</v>
       </c>
       <c r="T2" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="U2" t="n">
         <v>24.1</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.4</v>
+        <v>111.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -829,19 +829,19 @@
         <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -850,40 +850,40 @@
         <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
         <v>27</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB2" t="n">
         <v>13</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
         <v>4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>5</v>
@@ -1008,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
@@ -1017,19 +1017,19 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>14</v>
@@ -1041,7 +1041,7 @@
         <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>22</v>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1065,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>8</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1115,88 +1115,88 @@
         <v>42.8</v>
       </c>
       <c r="J4" t="n">
-        <v>87.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.491</v>
+        <v>0.487</v>
       </c>
       <c r="L4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="M4" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.398</v>
+        <v>0.393</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.802</v>
+        <v>0.796</v>
       </c>
       <c r="R4" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="S4" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="T4" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="U4" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="V4" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.9</v>
+        <v>118.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL4" t="n">
         <v>6</v>
@@ -1205,43 +1205,43 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
       </c>
       <c r="AT4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -1279,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J5" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.445</v>
       </c>
       <c r="L5" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
         <v>35.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.367</v>
+        <v>0.363</v>
       </c>
       <c r="O5" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="P5" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S5" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T5" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="U5" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="V5" t="n">
         <v>15.3</v>
       </c>
       <c r="W5" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.6</v>
+        <v>107.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1381,28 +1381,28 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
         <v>16</v>
@@ -1420,19 +1420,19 @@
         <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>9</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -1539,58 +1539,58 @@
         <v>-4.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL6" t="n">
         <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN6" t="n">
         <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP6" t="n">
         <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
         <v>30</v>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="BC6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -1721,13 +1721,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
@@ -1742,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
@@ -1766,22 +1766,22 @@
         <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT7" t="n">
         <v>20</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV7" t="n">
         <v>26</v>
       </c>
       <c r="AW7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
         <v>18</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -1903,22 +1903,22 @@
         <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1936,16 +1936,16 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ8" t="n">
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>10</v>
@@ -1963,10 +1963,10 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="BB8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC8" t="n">
         <v>6</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -2085,16 +2085,16 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
@@ -2103,16 +2103,16 @@
         <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
         <v>10</v>
@@ -2130,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>28</v>
@@ -2142,16 +2142,16 @@
         <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -2189,88 +2189,88 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.25</v>
+        <v>0.182</v>
       </c>
       <c r="H10" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.1</v>
+        <v>38.5</v>
       </c>
       <c r="J10" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.423</v>
+        <v>0.415</v>
       </c>
       <c r="L10" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="M10" t="n">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="O10" t="n">
-        <v>17.6</v>
+        <v>18.3</v>
       </c>
       <c r="P10" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.79</v>
+        <v>0.798</v>
       </c>
       <c r="R10" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>19.6</v>
       </c>
       <c r="AA10" t="n">
         <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.1</v>
+        <v>108.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
         <v>30</v>
@@ -2282,68 +2282,68 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB10" t="n">
         <v>23</v>
       </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="BC10" t="n">
         <v>28</v>
       </c>
-      <c r="AT10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>24</v>
-      </c>
       <c r="BD10" t="n">
         <v>10</v>
       </c>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -2449,34 +2449,34 @@
         <v>-4</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>19</v>
@@ -2500,31 +2500,31 @@
         <v>19</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -2553,142 +2553,142 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.458</v>
+        <v>0.466</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="M12" t="n">
-        <v>37.6</v>
+        <v>38.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.739</v>
+        <v>0.752</v>
       </c>
       <c r="R12" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
         <v>19.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>109.3</v>
+        <v>111.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-1.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
         <v>25</v>
       </c>
       <c r="AK12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>16</v>
       </c>
-      <c r="AL12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>20</v>
-      </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AU12" t="n">
         <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>2</v>
@@ -2697,16 +2697,16 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <v>6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>5</v>
@@ -2822,16 +2822,16 @@
         <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>5</v>
@@ -2846,19 +2846,19 @@
         <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR13" t="n">
         <v>24</v>
       </c>
       <c r="AS13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
         <v>24</v>
@@ -2876,13 +2876,13 @@
         <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB13" t="n">
         <v>8</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
         <v>4.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -3031,13 +3031,13 @@
         <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>30</v>
@@ -3046,7 +3046,7 @@
         <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV14" t="n">
         <v>9</v>
@@ -3067,7 +3067,7 @@
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC14" t="n">
         <v>7</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -3195,28 +3195,28 @@
         <v>4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>13</v>
@@ -3228,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>7</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -3281,73 +3281,73 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="J16" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="M16" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.327</v>
+        <v>0.331</v>
       </c>
       <c r="O16" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="P16" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.767</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>10.7</v>
       </c>
       <c r="S16" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="T16" t="n">
-        <v>45.8</v>
+        <v>46.1</v>
       </c>
       <c r="U16" t="n">
         <v>26.8</v>
       </c>
       <c r="V16" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="W16" t="n">
-        <v>10.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
         <v>17.2</v>
@@ -3356,40 +3356,40 @@
         <v>106.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
         <v>27</v>
       </c>
-      <c r="AM16" t="n">
-        <v>28</v>
-      </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3404,28 +3404,28 @@
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV16" t="n">
         <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
@@ -3434,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -3463,100 +3463,100 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>83.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.479</v>
       </c>
       <c r="L17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="M17" t="n">
-        <v>36.2</v>
+        <v>36.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.358</v>
       </c>
       <c r="O17" t="n">
-        <v>18.2</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.766</v>
+        <v>0.752</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="S17" t="n">
-        <v>35.6</v>
+        <v>36.6</v>
       </c>
       <c r="T17" t="n">
-        <v>42.6</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="V17" t="n">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Z17" t="n">
         <v>20.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.5</v>
+        <v>-2.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3565,58 +3565,58 @@
         <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>16</v>
       </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>13</v>
-      </c>
       <c r="AR17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ17" t="n">
         <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>10.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>2</v>
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL18" t="n">
         <v>2</v>
@@ -3759,7 +3759,7 @@
         <v>27</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>25</v>
@@ -3768,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
@@ -3792,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB18" t="n">
         <v>2</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -3905,64 +3905,64 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>24</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
         <v>14</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>14</v>
@@ -3977,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>30</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -4087,40 +4087,40 @@
         <v>-1.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN20" t="n">
         <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>5</v>
@@ -4132,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="n">
         <v>4</v>
@@ -4159,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="BB20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -4269,16 +4269,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
         <v>23</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4290,10 +4290,10 @@
         <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
         <v>30</v>
@@ -4308,43 +4308,43 @@
         <v>25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ21" t="n">
         <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -4451,19 +4451,19 @@
         <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>27</v>
@@ -4475,25 +4475,25 @@
         <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4508,7 +4508,7 @@
         <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
         <v>14</v>
@@ -4523,10 +4523,10 @@
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -4555,121 +4555,121 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>40</v>
+        <v>39.7</v>
       </c>
       <c r="J23" t="n">
-        <v>91.8</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.436</v>
+        <v>0.433</v>
       </c>
       <c r="L23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M23" t="n">
-        <v>30.8</v>
+        <v>29.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="O23" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="P23" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R23" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S23" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="T23" t="n">
-        <v>46.1</v>
+        <v>46.8</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y23" t="n">
         <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>106.1</v>
+        <v>105.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG23" t="n">
         <v>12</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM23" t="n">
         <v>28</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
       </c>
       <c r="AO23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP23" t="n">
         <v>19</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>22</v>
       </c>
       <c r="AQ23" t="n">
         <v>8</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT23" t="n">
         <v>7</v>
@@ -4690,26 +4690,26 @@
         <v>5</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>1</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC23" t="n">
         <v>26</v>
       </c>
-      <c r="BC23" t="n">
-        <v>28</v>
-      </c>
       <c r="BD23" t="n">
         <v>10</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -4737,142 +4737,142 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.643</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="L24" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="M24" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.761</v>
+        <v>0.765</v>
       </c>
       <c r="R24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S24" t="n">
         <v>37.4</v>
       </c>
       <c r="T24" t="n">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="U24" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>113.6</v>
+        <v>114.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
       </c>
       <c r="AF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI24" t="n">
         <v>8</v>
       </c>
-      <c r="AG24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR24" t="n">
         <v>17</v>
       </c>
-      <c r="AO24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>16</v>
-      </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
         <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
@@ -4881,16 +4881,16 @@
         <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -4997,10 +4997,10 @@
         <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>3</v>
@@ -5009,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>17</v>
@@ -5024,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN25" t="n">
         <v>14</v>
@@ -5033,7 +5033,7 @@
         <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
@@ -5042,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>3</v>
@@ -5057,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
@@ -5069,7 +5069,7 @@
         <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
         <v>9</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -5101,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.615</v>
+        <v>0.583</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5119,91 +5119,91 @@
         <v>40.5</v>
       </c>
       <c r="J26" t="n">
-        <v>92.2</v>
+        <v>91.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.439</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="M26" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R26" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="T26" t="n">
-        <v>44.6</v>
+        <v>43.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="V26" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>115.7</v>
+        <v>116</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
         <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5215,40 +5215,40 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ26" t="n">
         <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
         <v>6</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -5361,34 +5361,34 @@
         <v>-9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG27" t="n">
         <v>23</v>
       </c>
-      <c r="AG27" t="n">
-        <v>21</v>
-      </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
         <v>12</v>
@@ -5412,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV27" t="n">
         <v>10</v>
@@ -5427,13 +5427,13 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -5465,88 +5465,88 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="J28" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.441</v>
+        <v>0.445</v>
       </c>
       <c r="L28" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="M28" t="n">
-        <v>30.7</v>
+        <v>31.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.373</v>
       </c>
       <c r="O28" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="P28" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.784</v>
       </c>
       <c r="R28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="T28" t="n">
-        <v>46.1</v>
+        <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="V28" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="AA28" t="n">
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>110.1</v>
+        <v>110.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5555,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
@@ -5564,37 +5564,37 @@
         <v>1</v>
       </c>
       <c r="AK28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="n">
         <v>24</v>
       </c>
-      <c r="AL28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>27</v>
-      </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5603,22 +5603,22 @@
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -5647,127 +5647,127 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.333</v>
+        <v>0.273</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="J29" t="n">
-        <v>89</v>
+        <v>89.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L29" t="n">
+        <v>16</v>
+      </c>
+      <c r="M29" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="O29" t="n">
         <v>16.4</v>
       </c>
-      <c r="M29" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="O29" t="n">
-        <v>16.9</v>
-      </c>
       <c r="P29" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.799</v>
+        <v>0.789</v>
       </c>
       <c r="R29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T29" t="n">
         <v>43.2</v>
       </c>
       <c r="U29" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="V29" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W29" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z29" t="n">
         <v>22.6</v>
       </c>
       <c r="AA29" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD29" t="n">
         <v>19</v>
       </c>
-      <c r="AB29" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13</v>
-      </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS29" t="n">
         <v>25</v>
@@ -5782,22 +5782,22 @@
         <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>16</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
         <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
@@ -5916,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
@@ -5925,19 +5925,19 @@
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM30" t="n">
         <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO30" t="n">
         <v>30</v>
@@ -5961,13 +5961,13 @@
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>29</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5979,7 +5979,7 @@
         <v>28</v>
       </c>
       <c r="BB30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC30" t="n">
         <v>5</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
@@ -6089,16 +6089,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
         <v>19</v>
@@ -6107,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
         <v>9</v>
@@ -6131,13 +6131,13 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU31" t="n">
         <v>3</v>
@@ -6149,7 +6149,7 @@
         <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="BC31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-16-2020-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
